--- a/Project 2 - Transportation/Main Project/SiouxFalls.xlsx
+++ b/Project 2 - Transportation/Main Project/SiouxFalls.xlsx
@@ -459,7 +459,7 @@
         <v>0.0718741561656418</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1580618802005433</v>
+        <v>0.1106553859565384</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>0.07803725447627489</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1497380493428913</v>
+        <v>0.2026876580297928</v>
       </c>
     </row>
     <row r="4">
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09722967</v>
+        <v>0.0844655</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09773256</v>
+        <v>0.089729555</v>
       </c>
       <c r="D4" t="n">
-        <v>0.20228359</v>
+        <v>0.14776117</v>
       </c>
     </row>
     <row r="5">
@@ -547,7 +547,7 @@
         <v>0.0521615791532361</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1023078228932232</v>
+        <v>0.0805949048035572</v>
       </c>
     </row>
     <row r="3">
@@ -563,7 +563,7 @@
         <v>0.0542733407478129</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1020666021533115</v>
+        <v>0.1061232265255932</v>
       </c>
     </row>
     <row r="4">
@@ -573,13 +573,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.074013814</v>
+        <v>0.061611675</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06704187</v>
+        <v>0.056864627</v>
       </c>
       <c r="D4" t="n">
-        <v>0.15378523</v>
+        <v>0.09886618</v>
       </c>
     </row>
     <row r="5">
@@ -635,7 +635,7 @@
         <v>0.8791419460020117</v>
       </c>
       <c r="D2" t="n">
-        <v>0.647195859218528</v>
+        <v>0.8306280076457627</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +651,7 @@
         <v>0.8575265166933225</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6833760746930326</v>
+        <v>0.4317347610047082</v>
       </c>
     </row>
     <row r="4">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7737001031928378</v>
+        <v>0.8292166331445806</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7765354821466653</v>
+        <v>0.8116346301884156</v>
       </c>
       <c r="D4" t="n">
-        <v>0.422169171809945</v>
+        <v>0.6979929502272282</v>
       </c>
     </row>
     <row r="5">

--- a/Project 2 - Transportation/Main Project/SiouxFalls.xlsx
+++ b/Project 2 - Transportation/Main Project/SiouxFalls.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,24 @@
       <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -453,13 +471,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0864303292006469</v>
+        <v>0.0696692215136106</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0718741561656418</v>
+        <v>0.0660859158970305</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1106553859565384</v>
+        <v>0.0800489448211413</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0718409851833241</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0690908121326948</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.06466824980124899</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.07583714821939989</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0756274960203525</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1008330813638904</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +505,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0851533282216649</v>
+        <v>0.07057433972475879</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07803725447627489</v>
+        <v>0.0612253471607143</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2026876580297928</v>
+        <v>0.0823578944634771</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0683574894039518</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.06928356801590441</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0613154657789286</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0824113235514476</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0863118731785594</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1087561972119314</v>
       </c>
     </row>
     <row r="4">
@@ -485,13 +539,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0844655</v>
+        <v>0.0734100607</v>
       </c>
       <c r="C4" t="n">
-        <v>0.089729555</v>
+        <v>0.083109087</v>
       </c>
       <c r="D4" t="n">
-        <v>0.14776117</v>
+        <v>0.1027486195</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.08702584919999989</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0851634247</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0754904327999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1109616277</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1116288613999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.1613116625</v>
       </c>
     </row>
     <row r="5">
@@ -503,6 +575,12 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -515,7 +593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +611,24 @@
       <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -541,13 +637,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0606997106414595</v>
+        <v>0.0482078155490136</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0521615791532361</v>
+        <v>0.0456277403613871</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0805949048035572</v>
+        <v>0.0568173060472091</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0507198403304091</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0482981161309366</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0448233036961975</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0517262195141989</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0531173993681025</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0684424546959566</v>
       </c>
     </row>
     <row r="3">
@@ -557,13 +671,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.055535409251992</v>
+        <v>0.0479518259727152</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0542733407478129</v>
+        <v>0.0426283059150741</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1061232265255932</v>
+        <v>0.0552325194919247</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0467994146345702</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0473723387280067</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0424895430252269</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0540352403540185</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0559632961304823</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0714384290519169</v>
       </c>
     </row>
     <row r="4">
@@ -573,13 +705,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.061611675</v>
+        <v>0.0535476511</v>
       </c>
       <c r="C4" t="n">
-        <v>0.056864627</v>
+        <v>0.0578213071</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09886618</v>
+        <v>0.07100848529999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0636165253</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0619909453</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.056049073</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0811600378</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.07939264259999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.1122290686</v>
       </c>
     </row>
     <row r="5">
@@ -591,6 +741,12 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -603,7 +759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,6 +777,24 @@
       <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -629,13 +803,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8211787672658118</v>
+        <v>0.7486953996163749</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8791419460020117</v>
+        <v>0.7307765532958206</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8306280076457627</v>
+        <v>0.8204788513682908</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7531599902851672</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7716224931680719</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.7314558200459713</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7783883716056412</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7599282867232404</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.7248253785978435</v>
       </c>
     </row>
     <row r="3">
@@ -645,13 +837,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8264238688185137</v>
+        <v>0.7465527172287589</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8575265166933225</v>
+        <v>0.7769785926321526</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4317347610047082</v>
+        <v>0.8106179444451467</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7799040125486487</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7767036684032768</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.7496275510434576</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7371493357308949</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7072165585107475</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6717100850149893</v>
       </c>
     </row>
     <row r="4">
@@ -661,13 +871,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8292166331445806</v>
+        <v>0.7043691366174354</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8116346301884156</v>
+        <v>0.6031258463794019</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6979929502272282</v>
+        <v>0.6714957530153449</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6393921613438367</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6791334243431228</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6214579646338925</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4702035339930965</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.5173128884359641</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.3390176394967313</v>
       </c>
     </row>
     <row r="5">
@@ -679,6 +907,12 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Project 2 - Transportation/Main Project/SiouxFalls.xlsx
+++ b/Project 2 - Transportation/Main Project/SiouxFalls.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,12 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -471,31 +477,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0696692215136106</v>
+        <v>0.2625545301021742</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0660859158970305</v>
+        <v>0.2558892490430404</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0800489448211413</v>
+        <v>0.2816432074793905</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0718409851833241</v>
+        <v>0.2666807126381359</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0690908121326948</v>
+        <v>0.2618166299175891</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06466824980124899</v>
+        <v>0.2529359222967349</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07583714821939989</v>
+        <v>0.274477945828954</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0756274960203525</v>
+        <v>0.2732280359298519</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1008330813638904</v>
+        <v>0.3143219081563559</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.3844243915044076</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.406917037669147</v>
       </c>
     </row>
     <row r="3">
@@ -505,31 +517,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07057433972475879</v>
+        <v>0.2635499265842974</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0612253471607143</v>
+        <v>0.2459144279315551</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0823578944634771</v>
+        <v>0.2856614799310665</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0683574894039518</v>
+        <v>0.2576056607517867</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06928356801590441</v>
+        <v>0.261854672286142</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0613154657789286</v>
+        <v>0.2462263878782586</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0824113235514476</v>
+        <v>0.2847727129629375</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0863118731785594</v>
+        <v>0.2874039289128701</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1087561972119314</v>
+        <v>0.3257592134169115</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.3686907696525031</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.4373774226770425</v>
       </c>
     </row>
     <row r="4">
@@ -539,31 +557,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0734100607</v>
+        <v>0.0931802228</v>
       </c>
       <c r="C4" t="n">
-        <v>0.083109087</v>
+        <v>0.08027714750000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1027486195</v>
+        <v>0.1016835669999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08702584919999989</v>
+        <v>0.0817307827</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0851634247</v>
+        <v>0.0803645081</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0754904327999999</v>
+        <v>0.0729018759</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1109616277</v>
+        <v>0.1207985122</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1116288613999999</v>
+        <v>0.1016390640999999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1613116625</v>
+        <v>0.1411125189999999</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2935182652</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.31753247</v>
       </c>
     </row>
     <row r="5">
@@ -581,6 +605,8 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -593,7 +619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,6 +655,12 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -663,6 +695,12 @@
       <c r="J2" t="n">
         <v>0.0684424546959566</v>
       </c>
+      <c r="K2" t="n">
+        <v>0.1074802155343376</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.120684492923483</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -697,6 +735,12 @@
       <c r="J3" t="n">
         <v>0.0714384290519169</v>
       </c>
+      <c r="K3" t="n">
+        <v>0.09997640917700761</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.1299456841357961</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -705,31 +749,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0535476511</v>
+        <v>0.0684090368</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0578213071</v>
+        <v>0.0600377609</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07100848529999999</v>
+        <v>0.07269875770000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0636165253</v>
+        <v>0.060663232</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0619909453</v>
+        <v>0.0583177345999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.056049073</v>
+        <v>0.0549443642</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0811600378</v>
+        <v>0.090212321</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07939264259999999</v>
+        <v>0.072609058</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1122290686</v>
+        <v>0.1009176085</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1898190124</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2075290744</v>
       </c>
     </row>
     <row r="5">
@@ -747,6 +797,8 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -759,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,6 +847,12 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -829,6 +887,12 @@
       <c r="J2" t="n">
         <v>0.7248253785978435</v>
       </c>
+      <c r="K2" t="n">
+        <v>0.7717996261502256</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.747231183550802</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -863,6 +927,12 @@
       <c r="J3" t="n">
         <v>0.6717100850149893</v>
       </c>
+      <c r="K3" t="n">
+        <v>0.8110856770122826</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.5740635610871423</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -871,31 +941,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7043691366174354</v>
+        <v>0.5276078206847324</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6031258463794019</v>
+        <v>0.5441626380276131</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6714957530153449</v>
+        <v>0.6577447940990476</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6393921613438367</v>
+        <v>0.6658037473331341</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6791334243431228</v>
+        <v>0.6987424447791688</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6214579646338925</v>
+        <v>0.6297833987724092</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4702035339930965</v>
+        <v>0.3817421369977314</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5173128884359641</v>
+        <v>0.5905979410637359</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3390176394967313</v>
+        <v>0.4945730631194925</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.4006812892441047</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2098669797137494</v>
       </c>
     </row>
     <row r="5">
@@ -913,6 +989,8 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Project 2 - Transportation/Main Project/SiouxFalls.xlsx
+++ b/Project 2 - Transportation/Main Project/SiouxFalls.xlsx
@@ -557,37 +557,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0931802228</v>
+        <v>0.0072911809899999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08027714750000001</v>
+        <v>0.0059464994</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1016835669999999</v>
+        <v>0.01001020223</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0817307827</v>
+        <v>0.01304606891</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0803645081</v>
+        <v>0.0124645997199999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0729018759</v>
+        <v>0.0058072649799999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1207985122</v>
+        <v>0.00951356301</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1016390640999999</v>
+        <v>0.01424377242</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1411125189999999</v>
+        <v>0.0277416998</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2935182652</v>
+        <v>0.13147457055</v>
       </c>
       <c r="L4" t="n">
-        <v>0.31753247</v>
+        <v>0.16399405654</v>
       </c>
     </row>
     <row r="5">
@@ -749,37 +749,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0684090368</v>
+        <v>0.06314497619999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0600377609</v>
+        <v>0.0558334497</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07269875770000001</v>
+        <v>0.07011169239999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.060663232</v>
+        <v>0.07853884949999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0583177345999999</v>
+        <v>0.0716078533</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0549443642</v>
+        <v>0.0561192323999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.090212321</v>
+        <v>0.06687778029999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.072609058</v>
+        <v>0.0818240603</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1009176085</v>
+        <v>0.1114395889999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1898190124</v>
+        <v>0.1867503716</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2075290744</v>
+        <v>0.2265786485999999</v>
       </c>
     </row>
     <row r="5">
@@ -941,37 +941,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5276078206847324</v>
+        <v>0.6348107628557372</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5441626380276131</v>
+        <v>0.6541267060110949</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6577447940990476</v>
+        <v>0.7021641158261673</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6658037473331341</v>
+        <v>0.3473622471480092</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6987424447791688</v>
+        <v>0.5241735294732981</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6297833987724092</v>
+        <v>0.6264358415638843</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3817421369977314</v>
+        <v>0.6347964834682219</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5905979410637359</v>
+        <v>0.439415798211953</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4945730631194925</v>
+        <v>0.4287613672892593</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4006812892441047</v>
+        <v>0.3695403458867211</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2098669797137494</v>
+        <v>0.0103625134926402</v>
       </c>
     </row>
     <row r="5">
